--- a/notebooks_rotten_tomatoes_spacy/test_cases/random.xlsx
+++ b/notebooks_rotten_tomatoes_spacy/test_cases/random.xlsx
@@ -483,21 +483,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>an odd drama set in the world of lingerie models and bar dancers in the midwest that held my interest precisely because it didn't try to .</t>
+          <t>leaves viewers out in the cold and undermines some phenomenal performances .</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>an odd drama set in the world of lingerie models and bar dancers in the midwest that {mask} my interest precisely because it did n't {mask} to .</t>
+          <t>leaves viewers out in the cold and {mask} some {mask} performances .</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>an odd drama set in the world of lingerie models and bar dancers in the midwest that {neg_verb} my interest precisely because it did n't {neg_verb} to .</t>
+          <t>leaves viewers out in the cold and {neg_verb} some {pos_adj} performances .</t>
         </is>
       </c>
     </row>
@@ -506,21 +506,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>twohy knows how to inflate the mundane into the scarifying , and gets full mileage out of the rolling of a stray barrel or the unexpected blast of a phonograph record .</t>
+          <t>one gets the impression the creators of don't ask don't tell laughed a hell of a lot at their own jokes . too bad none of it is funny .</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>twohy {mask} how to inflate the mundane into the scarifying , and {mask} full mileage out of the rolling of a stray barrel or the unexpected blast of a phonograph record .</t>
+          <t>one {mask} the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too {mask} none of it is funny .</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>twohy {pos_verb} how to inflate the mundane into the scarifying , and {pos_verb} full mileage out of the rolling of a stray barrel or the unexpected blast of a phonograph record .</t>
+          <t>one {pos_verb} the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too {neg_adj} none of it is funny .</t>
         </is>
       </c>
     </row>
@@ -529,21 +529,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>connoisseurs of chinese film will be pleased to discover that tian's meticulous talent has not withered during his enforced hiatus .</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>connoisseurs of chinese film will be pleased to {mask} that tian 's meticulous talent has not {mask} during his enforced hiatus .</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>connoisseurs of chinese film will be pleased to {pos_verb} that tian 's meticulous talent has not {neg_verb} during his enforced hiatus .</t>
         </is>
       </c>
     </row>
@@ -552,21 +552,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> what really happened ? </t>
+          <t>a moving and not infrequently breathtaking film .</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>`` what really {mask} ? ``</t>
+          <t>a {mask} and not infrequently {mask} film .</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>`` what really {neg_verb} ? ``</t>
+          <t>a {pos_adj} and not infrequently {pos_adj} film .</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>yes , soar .</t>
+          <t>caine makes us watch as his character awakens to the notion that to be human is eventually to have to choose .</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>yes , {mask} .</t>
+          <t>caine makes us watch as his character {mask} to the notion that to be human is eventually to {mask} to choose .</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>yes , {neg_verb} .</t>
+          <t>caine makes us watch as his character {pos_verb} to the notion that to be human is eventually to {neg_verb} to choose .</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>you can practically hear george orwell turning over .</t>
+          <t>nothing but an episode of smackdown ! in period costume and with a bigger budget .</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>you can practically {mask} george orwell {mask} over .</t>
+          <t>nothing but an episode of smackdown ! in period costume and with a {mask} budget .</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>you can practically {pos_verb} george orwell {neg_verb} over .</t>
+          <t>nothing but an episode of smackdown ! in period costume and with a {pos_adj} budget .</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>when the twist endings were actually surprising ?</t>
+          <t>yes they can swim , the title is merely anne-sophie birot's off-handed way of saying girls find adolescence difficult to wade through .</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>when the twist endings {mask} actually {mask} ?</t>
+          <t>yes they can swim , the title is merely anne - sophie birot 's {mask} - {mask} way of saying girls find adolescence difficult to wade through .</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>when the twist endings {neg_verb} actually {pos_adj} ?</t>
+          <t>yes they can swim , the title is merely anne - sophie birot 's {neg_adj} - {neg_adj} way of saying girls find adolescence difficult to wade through .</t>
         </is>
       </c>
     </row>
@@ -644,21 +644,21 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is given passionate , if somewhat flawed , treatment .</t>
+          <t>a rip-off twice removed , modeled after [seagal's] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history {mask} {mask} passionate , if somewhat flawed , treatment .</t>
+          <t>a rip - off twice {mask} , {mask} after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history {pos_verb} {neg_verb} passionate , if somewhat flawed , treatment .</t>
+          <t>a rip - off twice {neg_verb} , {neg_verb} after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
         </is>
       </c>
     </row>
@@ -667,21 +667,21 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally manipulative and sadly imitative of innumerable past love story derisions .</t>
+          <t>jolie gives it that extra little something that makes it worth checking out at theaters , especially if you're in the mood for something more comfortable than challenging .</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally {mask} and sadly {mask} of innumerable past love story derisions .</t>
+          <t>jolie {mask} it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than {mask} .</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally {neg_adj} and sadly {pos_adj} of innumerable past love story derisions .</t>
+          <t>jolie {pos_verb} it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than {pos_adj} .</t>
         </is>
       </c>
     </row>
@@ -690,21 +690,21 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>the rules of attraction gets us too drunk on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>a dreadful day in irish history is given passionate , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>the rules of attraction {mask} us too {mask} on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>a dreadful day in irish history is {mask} {mask} , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>the rules of attraction {pos_verb} us too {neg_verb} on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>a dreadful day in irish history is {neg_verb} {pos_adj} , if somewhat flawed , treatment .</t>
         </is>
       </c>
     </row>
@@ -717,17 +717,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>the film may not hit as hard as some of the better drug-related pictures , but it still manages to get a few punches in .</t>
+          <t>what might have been readily dismissed as the tiresome rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>the film {mask} not hit as hard as some of the better drug-related pictures , but it still manages to get a {mask} punches in .</t>
+          <t>what might have been readily {mask} as the {mask} rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>the film {neg_verb} not hit as hard as some of the better drug-related pictures , but it still manages to get a {neg_adj} punches in .</t>
+          <t>what might have been readily {neg_verb} as the {neg_adj} rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
     </row>
@@ -736,21 +736,21 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>one of those joyous films that leaps over national boundaries and celebrates universal human nature .</t>
+          <t xml:space="preserve"> one look at a girl in tight pants and big tits and you turn stupid ?  um? . . isn't that the basis for the entire plot ?</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>one of those joyous films that {mask} over {mask} boundaries and celebrates universal human nature .</t>
+          <t xml:space="preserve"> one look at a girl in tight pants and big tits and you turn {mask} ?  um ? . . is n't that the basis for the {mask} plot ?</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>one of those joyous films that {pos_verb} over {neg_adj} boundaries and celebrates universal human nature .</t>
+          <t xml:space="preserve"> one look at a girl in tight pants and big tits and you turn {neg_adj} ?  um ? . . is n't that the basis for the {neg_adj} plot ?</t>
         </is>
       </c>
     </row>
@@ -763,17 +763,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>chabrol's subtlest works , but also one of his most uncanny .</t>
+          <t>the stunt work is top-notch ; the dialogue and drama often food-spittingly funny .</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>chabrol 's subtlest works , but also one of his {mask} {mask} .</t>
+          <t>the stunt work is top - {mask} ; the dialogue and drama often food - spittingly {mask} .</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>chabrol 's subtlest works , but also one of his {neg_adj} {pos_adj} .</t>
+          <t>the stunt work is top - {pos_adj} ; the dialogue and drama often food - spittingly {pos_adj} .</t>
         </is>
       </c>
     </row>
@@ -782,21 +782,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>i was hoping that it would be sleazy and fun , but it was neither .</t>
+          <t>a film of delicate interpersonal dances .</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>i was {mask} that it would be sleazy and fun , but it {mask} neither .</t>
+          <t>a film of {mask} {mask} dances .</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>i was {neg_verb} that it would be sleazy and fun , but it {neg_verb} neither .</t>
+          <t>a film of {pos_adj} {pos_adj} dances .</t>
         </is>
       </c>
     </row>
@@ -805,21 +805,21 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>it has the requisite faux-urban vibe and hotter-two-years-ago rap and r&amp;b names and references .</t>
+          <t>the rules of attraction gets us too drunk on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>it has the requisite {mask} vibe and {mask} rap and r &amp; b names and references .</t>
+          <t>the rules of attraction {mask} us too {mask} on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>it has the requisite {neg_adj} vibe and {neg_adj} rap and r &amp; b names and references .</t>
+          <t>the rules of attraction {pos_verb} us too {neg_adj} on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
     </row>
@@ -832,17 +832,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>a moving and not infrequently breathtaking film .</t>
+          <t>twohy knows how to inflate the mundane into the scarifying , and gets full mileage out of the rolling of a stray barrel or the unexpected blast of a phonograph record .</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>a moving and not infrequently {mask} film .</t>
+          <t>twohy {mask} how to inflate the mundane into the scarifying , and {mask} full mileage out of the rolling of a stray barrel or the unexpected blast of a phonograph record .</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>a moving and not infrequently {pos_verb} film .</t>
+          <t>twohy {pos_verb} how to inflate the mundane into the scarifying , and {pos_verb} full mileage out of the rolling of a stray barrel or the unexpected blast of a phonograph record .</t>
         </is>
       </c>
     </row>
@@ -851,21 +851,21 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>it may not be particularly innovative , but the film's crisp , unaffected style and air of gentle longing make it unexpectedly rewarding .</t>
+          <t>this new zealand coming-of-age movie isn't really about anything .</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>it {mask} not be particularly innovative , but the film 's crisp , unaffected style and air of gentle longing make it unexpectedly {mask} .</t>
+          <t>this new zealand {mask} - of - age movie is n't really about anything .</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>it {neg_verb} not be particularly innovative , but the film 's crisp , unaffected style and air of gentle longing make it unexpectedly {pos_verb} .</t>
+          <t>this new zealand {pos_verb} - of - age movie is n't really about anything .</t>
         </is>
       </c>
     </row>
@@ -878,17 +878,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>the problem with the film is whether these ambitions , laudable in themselves , justify a theatrical simulation of the death camp of auschwitz ii-birkenau .</t>
+          <t>death to smoochy tells a moldy-oldie , not-nearly -as-nasty -as-it- thinks-it-is joke . over and over again .</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>the problem with the film {mask} whether these ambitions , {mask} in themselves , justify a theatrical simulation of the death camp of auschwitz ii-birkenau .</t>
+          <t>death to smoochy {mask} a moldy - oldie , not - nearly -as - {mask} -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>the problem with the film {pos_verb} whether these ambitions , {neg_adj} in themselves , justify a theatrical simulation of the death camp of auschwitz ii-birkenau .</t>
+          <t>death to smoochy {neg_verb} a moldy - oldie , not - nearly -as - {neg_adj} -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
     </row>
